--- a/Stock_Database.xlsx
+++ b/Stock_Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Stock Name</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>IOB.BO</t>
+  </si>
+  <si>
+    <t>Automobile</t>
+  </si>
+  <si>
+    <t>Tata Motors</t>
+  </si>
+  <si>
+    <t>TATAMOTORS.NS</t>
   </si>
 </sst>
 </file>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +460,7 @@
     <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
     <col min="6" max="7" width="8.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="2" bestFit="1" customWidth="1"/>
@@ -640,6 +649,58 @@
         <v>426.9</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45698</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>696.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45698</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>359.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Stock_Database.xlsx
+++ b/Stock_Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Stock Name</t>
   </si>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,6 +701,84 @@
         <v>359.35</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45716</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45716</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>337.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45716</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>222.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Stock_Database.xlsx
+++ b/Stock_Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Stock Name</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>TATAMOTORS.NS</t>
+  </si>
+  <si>
+    <t>Sell</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,6 +782,58 @@
         <v>222.1</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45719</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45719</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>333.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Stock_Database.xlsx
+++ b/Stock_Database.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3454F969-E834-44C8-8A1E-C8B623F4B6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Stock Name</t>
   </si>
@@ -103,12 +104,27 @@
   </si>
   <si>
     <t>Sell</t>
+  </si>
+  <si>
+    <t>FMCG</t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>Varun Beverages</t>
+  </si>
+  <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
+    <t>VBL.NS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
@@ -451,26 +467,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="8.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -496,7 +512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -522,7 +538,7 @@
         <v>21.56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -548,7 +564,7 @@
         <v>247.15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -574,7 +590,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -600,7 +616,7 @@
         <v>277.10000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -626,7 +642,7 @@
         <v>65.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -652,7 +668,7 @@
         <v>426.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -678,7 +694,7 @@
         <v>696.45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -704,7 +720,7 @@
         <v>359.35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -730,7 +746,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -756,7 +772,7 @@
         <v>337.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -782,7 +798,7 @@
         <v>222.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -808,7 +824,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -832,10 +848,94 @@
       </c>
       <c r="H14" s="5">
         <v>333.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45733</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>408.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45733</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>504.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45733</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>75.739999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{bac4e201-4c2d-490c-b188-5575fa2c697c}" enabled="1" method="Standard" siteId="{8c4858b5-f020-483a-b7ef-71ded6e81767}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Stock_Database.xlsx
+++ b/Stock_Database.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3454F969-E834-44C8-8A1E-C8B623F4B6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3FE88-E45B-4B95-AD23-BAB3BA35FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
   <si>
     <t>Stock Name</t>
   </si>
@@ -106,6 +117,15 @@
     <t>Sell</t>
   </si>
   <si>
+    <t>Current Holdings</t>
+  </si>
+  <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
+    <t>VBL.NS</t>
+  </si>
+  <si>
     <t>FMCG</t>
   </si>
   <si>
@@ -113,12 +133,6 @@
   </si>
   <si>
     <t>Varun Beverages</t>
-  </si>
-  <si>
-    <t>ITC.NS</t>
-  </si>
-  <si>
-    <t>VBL.NS</t>
   </si>
 </sst>
 </file>
@@ -468,25 +482,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
     <col min="6" max="7" width="8.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -509,10 +524,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -534,11 +552,15 @@
       <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
+        <f>SUMIFS($G$2:G2, $C$2:C2, C2, $F$2:F2, "Buy") - SUMIFS($G$2:G2, $C$2:C2, C2, $F$2:F2, "Sell")</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
         <v>21.56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -560,11 +582,15 @@
       <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
+        <f>SUMIFS($G$2:G3, $C$2:C3, C3, $F$2:F3, "Buy") - SUMIFS($G$2:G3, $C$2:C3, C3, $F$2:F3, "Sell")</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="5">
         <v>247.15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -586,11 +612,15 @@
       <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
+        <f>SUMIFS($G$2:G4, $C$2:C4, C4, $F$2:F4, "Buy") - SUMIFS($G$2:G4, $C$2:C4, C4, $F$2:F4, "Sell")</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
         <v>66.95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -612,11 +642,15 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
+        <f>SUMIFS($G$2:G5, $C$2:C5, C5, $F$2:F5, "Buy") - SUMIFS($G$2:G5, $C$2:C5, C5, $F$2:F5, "Sell")</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
         <v>277.10000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -638,11 +672,15 @@
       <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
+        <f>SUMIFS($G$2:G6, $C$2:C6, C6, $F$2:F6, "Buy") - SUMIFS($G$2:G6, $C$2:C6, C6, $F$2:F6, "Sell")</f>
+        <v>7</v>
+      </c>
+      <c r="I6" s="5">
         <v>65.75</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -664,11 +702,15 @@
       <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
+        <f>SUMIFS($G$2:G7, $C$2:C7, C7, $F$2:F7, "Buy") - SUMIFS($G$2:G7, $C$2:C7, C7, $F$2:F7, "Sell")</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
         <v>426.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -690,11 +732,15 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
+        <f>SUMIFS($G$2:G8, $C$2:C8, C8, $F$2:F8, "Buy") - SUMIFS($G$2:G8, $C$2:C8, C8, $F$2:F8, "Sell")</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
         <v>696.45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -716,11 +762,15 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
+        <f>SUMIFS($G$2:G9, $C$2:C9, C9, $F$2:F9, "Buy") - SUMIFS($G$2:G9, $C$2:C9, C9, $F$2:F9, "Sell")</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
         <v>359.35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -742,11 +792,15 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
+        <f>SUMIFS($G$2:G10, $C$2:C10, C10, $F$2:F10, "Buy") - SUMIFS($G$2:G10, $C$2:C10, C10, $F$2:F10, "Sell")</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
         <v>632</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -768,11 +822,15 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="2">
+        <f>SUMIFS($G$2:G11, $C$2:C11, C11, $F$2:F11, "Buy") - SUMIFS($G$2:G11, $C$2:C11, C11, $F$2:F11, "Sell")</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="5">
         <v>337.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -794,11 +852,15 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="2">
+        <f>SUMIFS($G$2:G12, $C$2:C12, C12, $F$2:F12, "Buy") - SUMIFS($G$2:G12, $C$2:C12, C12, $F$2:F12, "Sell")</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
         <v>222.1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -820,11 +882,15 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
+        <f>SUMIFS($G$2:G13, $C$2:C13, C13, $F$2:F13, "Buy") - SUMIFS($G$2:G13, $C$2:C13, C13, $F$2:F13, "Sell")</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -846,22 +912,26 @@
       <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="2">
+        <f>SUMIFS($G$2:G14, $C$2:C14, C14, $F$2:F14, "Buy") - SUMIFS($G$2:G14, $C$2:C14, C14, $F$2:F14, "Sell")</f>
+        <v>6</v>
+      </c>
+      <c r="I14" s="5">
         <v>333.45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E15" s="3">
         <v>45733</v>
@@ -872,22 +942,26 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
+        <f>SUMIFS($G$2:G15, $C$2:C15, C15, $F$2:F15, "Buy") - SUMIFS($G$2:G15, $C$2:C15, C15, $F$2:F15, "Sell")</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
         <v>408.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E16" s="3">
         <v>45733</v>
@@ -898,11 +972,15 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="2">
+        <f>SUMIFS($G$2:G16, $C$2:C16, C16, $F$2:F16, "Buy") - SUMIFS($G$2:G16, $C$2:C16, C16, $F$2:F16, "Sell")</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
         <v>504.7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -924,13 +1002,20 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="2">
+        <f>SUMIFS($G$2:G17, $C$2:C17, C17, $F$2:F17, "Buy") - SUMIFS($G$2:G17, $C$2:C17, C17, $F$2:F17, "Sell")</f>
+        <v>8</v>
+      </c>
+      <c r="I17" s="5">
         <v>75.739999999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3 H4:H13" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/Stock_Database.xlsx
+++ b/Stock_Database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3FE88-E45B-4B95-AD23-BAB3BA35FD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28403694-1C5E-4F65-BC63-CFDF4C5B4B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Stock Name</t>
   </si>
@@ -57,12 +57,6 @@
     <t>ZOMATO.BO</t>
   </si>
   <si>
-    <t>Zomato</t>
-  </si>
-  <si>
-    <t>ICICI Prudential Gold ETF</t>
-  </si>
-  <si>
     <t>EXICOM.BO</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>S.No.</t>
   </si>
   <si>
-    <t>Exicom Tele-Systems</t>
-  </si>
-  <si>
     <t>Price per Unit</t>
   </si>
   <si>
@@ -133,6 +124,24 @@
   </si>
   <si>
     <t>Varun Beverages</t>
+  </si>
+  <si>
+    <t>Eternal</t>
+  </si>
+  <si>
+    <t>US Index-ETF</t>
+  </si>
+  <si>
+    <t>MON 100 ETF</t>
+  </si>
+  <si>
+    <t>ICICI Pru Gold ETF</t>
+  </si>
+  <si>
+    <t>Exicom</t>
+  </si>
+  <si>
+    <t>MON100.NS</t>
   </si>
 </sst>
 </file>
@@ -482,17 +491,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
     <col min="6" max="7" width="8.140625" style="2" customWidth="1"/>
@@ -503,10 +512,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -524,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -535,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>44579</v>
@@ -565,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -595,13 +604,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>45625</v>
@@ -625,13 +634,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
         <v>45625</v>
@@ -655,13 +664,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3">
         <v>45628</v>
@@ -685,13 +694,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3">
         <v>45630</v>
@@ -715,13 +724,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3">
         <v>45698</v>
@@ -745,13 +754,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3">
         <v>45698</v>
@@ -775,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3">
         <v>45716</v>
@@ -805,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>45716</v>
@@ -835,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -865,19 +874,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
         <v>45719</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2">
         <v>5</v>
@@ -895,13 +904,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3">
         <v>45719</v>
@@ -925,13 +934,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3">
         <v>45733</v>
@@ -955,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" s="3">
         <v>45733</v>
@@ -985,13 +994,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3">
         <v>45733</v>
@@ -1008,6 +1017,96 @@
       </c>
       <c r="I17" s="5">
         <v>75.739999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45748</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <f>SUMIFS($G$2:G18, $C$2:C18, C18, $F$2:F18, "Buy") - SUMIFS($G$2:G18, $C$2:C18, C18, $F$2:F18, "Sell")</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>407.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45748</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <f>SUMIFS($G$2:G19, $C$2:C19, C19, $F$2:F19, "Buy") - SUMIFS($G$2:G19, $C$2:C19, C19, $F$2:F19, "Sell")</f>
+        <v>8</v>
+      </c>
+      <c r="I19" s="5">
+        <v>201.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45748</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <f>SUMIFS($G$2:G20, $C$2:C20, C20, $F$2:F20, "Buy") - SUMIFS($G$2:G20, $C$2:C20, C20, $F$2:F20, "Sell")</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>180.43</v>
       </c>
     </row>
   </sheetData>
